--- a/data/audit/bs/bs_gened.xlsx
+++ b/data/audit/bs/bs_gened.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B374"/>
+  <dimension ref="A1:C374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>min_units</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,6 +461,9 @@
           <t>38-100</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,6 +476,9 @@
           <t>38-101</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -480,6 +491,9 @@
           <t>76-101</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -492,6 +506,9 @@
           <t>76-102</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -504,6 +521,9 @@
           <t>76-106</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -516,6 +536,9 @@
           <t>76-107</t>
         </is>
       </c>
+      <c r="C7" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -528,6 +551,9 @@
           <t>76-108</t>
         </is>
       </c>
+      <c r="C8" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -540,6 +566,9 @@
           <t>99-101</t>
         </is>
       </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -552,6 +581,9 @@
           <t>38-304</t>
         </is>
       </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -564,6 +596,9 @@
           <t>09-225</t>
         </is>
       </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -576,6 +611,9 @@
           <t>09-303</t>
         </is>
       </c>
+      <c r="C12" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -588,6 +626,9 @@
           <t>09-325</t>
         </is>
       </c>
+      <c r="C13" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -600,6 +641,9 @@
           <t>09-403</t>
         </is>
       </c>
+      <c r="C14" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -612,6 +656,9 @@
           <t>09-510</t>
         </is>
       </c>
+      <c r="C15" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -624,6 +671,9 @@
           <t>12-100</t>
         </is>
       </c>
+      <c r="C16" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -636,6 +686,9 @@
           <t>17-200</t>
         </is>
       </c>
+      <c r="C17" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -648,6 +701,9 @@
           <t>19-101</t>
         </is>
       </c>
+      <c r="C18" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -660,6 +716,9 @@
           <t>19-411</t>
         </is>
       </c>
+      <c r="C19" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -672,6 +731,9 @@
           <t>19-421</t>
         </is>
       </c>
+      <c r="C20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -684,6 +746,9 @@
           <t>19-424</t>
         </is>
       </c>
+      <c r="C21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -696,6 +761,9 @@
           <t>19-425</t>
         </is>
       </c>
+      <c r="C22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -708,6 +776,9 @@
           <t>19-429</t>
         </is>
       </c>
+      <c r="C23" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -720,6 +791,9 @@
           <t>19-437</t>
         </is>
       </c>
+      <c r="C24" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -732,6 +806,9 @@
           <t>33-115</t>
         </is>
       </c>
+      <c r="C25" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -744,6 +821,9 @@
           <t>33-226</t>
         </is>
       </c>
+      <c r="C26" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -756,6 +836,9 @@
           <t>79-234</t>
         </is>
       </c>
+      <c r="C27" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -768,6 +851,9 @@
           <t>79-275</t>
         </is>
       </c>
+      <c r="C28" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -780,6 +866,9 @@
           <t>79-299</t>
         </is>
       </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -792,6 +881,9 @@
           <t>79-330</t>
         </is>
       </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -804,6 +896,9 @@
           <t>79-342</t>
         </is>
       </c>
+      <c r="C31" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -816,6 +911,9 @@
           <t>80-245</t>
         </is>
       </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -828,6 +926,9 @@
           <t>99-262</t>
         </is>
       </c>
+      <c r="C33" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -840,6 +941,9 @@
           <t>99-263</t>
         </is>
       </c>
+      <c r="C34" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -852,6 +956,9 @@
           <t>38-110</t>
         </is>
       </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -864,6 +971,9 @@
           <t>38-220</t>
         </is>
       </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -876,6 +986,9 @@
           <t>38-230</t>
         </is>
       </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -888,6 +1001,9 @@
           <t>38-330</t>
         </is>
       </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -900,6 +1016,9 @@
           <t>38-430</t>
         </is>
       </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -912,6 +1031,9 @@
           <t>99-300</t>
         </is>
       </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -924,6 +1046,9 @@
           <t>99-301</t>
         </is>
       </c>
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -936,6 +1061,9 @@
           <t>99-302</t>
         </is>
       </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -948,6 +1076,9 @@
           <t>99-303</t>
         </is>
       </c>
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -960,6 +1091,9 @@
           <t>99-304</t>
         </is>
       </c>
+      <c r="C44" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -972,6 +1106,9 @@
           <t>99-305</t>
         </is>
       </c>
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -984,6 +1121,9 @@
           <t>99-306</t>
         </is>
       </c>
+      <c r="C46" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -996,6 +1136,9 @@
           <t>99-307</t>
         </is>
       </c>
+      <c r="C47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1008,6 +1151,9 @@
           <t>99-308</t>
         </is>
       </c>
+      <c r="C48" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1020,6 +1166,9 @@
           <t>99-309</t>
         </is>
       </c>
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1032,6 +1181,9 @@
           <t>99-310</t>
         </is>
       </c>
+      <c r="C50" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1044,6 +1196,9 @@
           <t>99-311</t>
         </is>
       </c>
+      <c r="C51" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1056,6 +1211,9 @@
           <t>99-312</t>
         </is>
       </c>
+      <c r="C52" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1068,6 +1226,9 @@
           <t>99-313</t>
         </is>
       </c>
+      <c r="C53" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1080,6 +1241,9 @@
           <t>99-314</t>
         </is>
       </c>
+      <c r="C54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1092,6 +1256,9 @@
           <t>99-315</t>
         </is>
       </c>
+      <c r="C55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1104,6 +1271,9 @@
           <t>99-316</t>
         </is>
       </c>
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1116,6 +1286,9 @@
           <t>99-317</t>
         </is>
       </c>
+      <c r="C57" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1128,6 +1301,9 @@
           <t>99-318</t>
         </is>
       </c>
+      <c r="C58" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1140,6 +1316,9 @@
           <t>99-319</t>
         </is>
       </c>
+      <c r="C59" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1152,6 +1331,9 @@
           <t>99-320</t>
         </is>
       </c>
+      <c r="C60" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1164,6 +1346,9 @@
           <t>99-321</t>
         </is>
       </c>
+      <c r="C61" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1176,6 +1361,9 @@
           <t>99-322</t>
         </is>
       </c>
+      <c r="C62" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1188,6 +1376,9 @@
           <t>99-323</t>
         </is>
       </c>
+      <c r="C63" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1200,6 +1391,9 @@
           <t>99-324</t>
         </is>
       </c>
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1212,6 +1406,9 @@
           <t>99-325</t>
         </is>
       </c>
+      <c r="C65" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1224,6 +1421,9 @@
           <t>99-326</t>
         </is>
       </c>
+      <c r="C66" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1236,6 +1436,9 @@
           <t>99-327</t>
         </is>
       </c>
+      <c r="C67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1248,6 +1451,9 @@
           <t>99-328</t>
         </is>
       </c>
+      <c r="C68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1260,6 +1466,9 @@
           <t>99-329</t>
         </is>
       </c>
+      <c r="C69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1272,6 +1481,9 @@
           <t>99-330</t>
         </is>
       </c>
+      <c r="C70" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1284,6 +1496,9 @@
           <t>99-331</t>
         </is>
       </c>
+      <c r="C71" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1296,6 +1511,9 @@
           <t>99-332</t>
         </is>
       </c>
+      <c r="C72" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1308,6 +1526,9 @@
           <t>99-333</t>
         </is>
       </c>
+      <c r="C73" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1320,6 +1541,9 @@
           <t>99-334</t>
         </is>
       </c>
+      <c r="C74" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1332,6 +1556,9 @@
           <t>99-335</t>
         </is>
       </c>
+      <c r="C75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1344,6 +1571,9 @@
           <t>99-336</t>
         </is>
       </c>
+      <c r="C76" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1356,6 +1586,9 @@
           <t>99-337</t>
         </is>
       </c>
+      <c r="C77" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1368,6 +1601,9 @@
           <t>99-338</t>
         </is>
       </c>
+      <c r="C78" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1380,6 +1616,9 @@
           <t>99-339</t>
         </is>
       </c>
+      <c r="C79" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1392,6 +1631,9 @@
           <t>99-340</t>
         </is>
       </c>
+      <c r="C80" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1404,6 +1646,9 @@
           <t>99-341</t>
         </is>
       </c>
+      <c r="C81" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1416,6 +1661,9 @@
           <t>99-342</t>
         </is>
       </c>
+      <c r="C82" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1428,6 +1676,9 @@
           <t>99-343</t>
         </is>
       </c>
+      <c r="C83" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1440,6 +1691,9 @@
           <t>99-344</t>
         </is>
       </c>
+      <c r="C84" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1452,6 +1706,9 @@
           <t>99-345</t>
         </is>
       </c>
+      <c r="C85" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1464,6 +1721,9 @@
           <t>99-346</t>
         </is>
       </c>
+      <c r="C86" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1476,6 +1736,9 @@
           <t>99-347</t>
         </is>
       </c>
+      <c r="C87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1488,6 +1751,9 @@
           <t>99-348</t>
         </is>
       </c>
+      <c r="C88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1500,6 +1766,9 @@
           <t>99-349</t>
         </is>
       </c>
+      <c r="C89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1512,6 +1781,9 @@
           <t>99-350</t>
         </is>
       </c>
+      <c r="C90" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1524,6 +1796,9 @@
           <t>99-351</t>
         </is>
       </c>
+      <c r="C91" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1536,6 +1811,9 @@
           <t>99-352</t>
         </is>
       </c>
+      <c r="C92" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1548,6 +1826,9 @@
           <t>99-353</t>
         </is>
       </c>
+      <c r="C93" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1560,6 +1841,9 @@
           <t>99-354</t>
         </is>
       </c>
+      <c r="C94" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1572,6 +1856,9 @@
           <t>99-355</t>
         </is>
       </c>
+      <c r="C95" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1584,6 +1871,9 @@
           <t>99-356</t>
         </is>
       </c>
+      <c r="C96" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1596,6 +1886,9 @@
           <t>99-357</t>
         </is>
       </c>
+      <c r="C97" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1608,6 +1901,9 @@
           <t>99-358</t>
         </is>
       </c>
+      <c r="C98" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1620,6 +1916,9 @@
           <t>99-359</t>
         </is>
       </c>
+      <c r="C99" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1632,6 +1931,9 @@
           <t>99-360</t>
         </is>
       </c>
+      <c r="C100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1644,6 +1946,9 @@
           <t>99-361</t>
         </is>
       </c>
+      <c r="C101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1656,6 +1961,9 @@
           <t>99-362</t>
         </is>
       </c>
+      <c r="C102" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1668,6 +1976,9 @@
           <t>99-363</t>
         </is>
       </c>
+      <c r="C103" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1680,6 +1991,9 @@
           <t>99-364</t>
         </is>
       </c>
+      <c r="C104" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1692,6 +2006,9 @@
           <t>99-365</t>
         </is>
       </c>
+      <c r="C105" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1704,6 +2021,9 @@
           <t>99-366</t>
         </is>
       </c>
+      <c r="C106" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1716,6 +2036,9 @@
           <t>99-367</t>
         </is>
       </c>
+      <c r="C107" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1728,6 +2051,9 @@
           <t>99-368</t>
         </is>
       </c>
+      <c r="C108" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1740,6 +2066,9 @@
           <t>99-369</t>
         </is>
       </c>
+      <c r="C109" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -1752,6 +2081,9 @@
           <t>99-370</t>
         </is>
       </c>
+      <c r="C110" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1764,6 +2096,9 @@
           <t>99-371</t>
         </is>
       </c>
+      <c r="C111" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -1776,6 +2111,9 @@
           <t>99-372</t>
         </is>
       </c>
+      <c r="C112" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -1788,6 +2126,9 @@
           <t>99-373</t>
         </is>
       </c>
+      <c r="C113" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -1800,6 +2141,9 @@
           <t>99-374</t>
         </is>
       </c>
+      <c r="C114" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -1812,6 +2156,9 @@
           <t>99-375</t>
         </is>
       </c>
+      <c r="C115" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -1824,6 +2171,9 @@
           <t>99-376</t>
         </is>
       </c>
+      <c r="C116" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -1836,6 +2186,9 @@
           <t>99-377</t>
         </is>
       </c>
+      <c r="C117" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -1848,6 +2201,9 @@
           <t>99-378</t>
         </is>
       </c>
+      <c r="C118" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -1860,6 +2216,9 @@
           <t>99-379</t>
         </is>
       </c>
+      <c r="C119" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -1872,6 +2231,9 @@
           <t>99-380</t>
         </is>
       </c>
+      <c r="C120" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -1884,6 +2246,9 @@
           <t>99-381</t>
         </is>
       </c>
+      <c r="C121" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -1896,6 +2261,9 @@
           <t>99-382</t>
         </is>
       </c>
+      <c r="C122" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -1908,6 +2276,9 @@
           <t>99-383</t>
         </is>
       </c>
+      <c r="C123" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -1920,6 +2291,9 @@
           <t>99-384</t>
         </is>
       </c>
+      <c r="C124" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -1932,6 +2306,9 @@
           <t>99-385</t>
         </is>
       </c>
+      <c r="C125" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -1944,6 +2321,9 @@
           <t>99-386</t>
         </is>
       </c>
+      <c r="C126" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -1956,6 +2336,9 @@
           <t>99-387</t>
         </is>
       </c>
+      <c r="C127" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -1968,6 +2351,9 @@
           <t>99-388</t>
         </is>
       </c>
+      <c r="C128" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -1980,6 +2366,9 @@
           <t>99-389</t>
         </is>
       </c>
+      <c r="C129" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -1992,6 +2381,9 @@
           <t>99-390</t>
         </is>
       </c>
+      <c r="C130" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2004,6 +2396,9 @@
           <t>99-391</t>
         </is>
       </c>
+      <c r="C131" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2016,6 +2411,9 @@
           <t>99-392</t>
         </is>
       </c>
+      <c r="C132" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2028,6 +2426,9 @@
           <t>99-393</t>
         </is>
       </c>
+      <c r="C133" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2040,6 +2441,9 @@
           <t>99-394</t>
         </is>
       </c>
+      <c r="C134" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2052,6 +2456,9 @@
           <t>99-395</t>
         </is>
       </c>
+      <c r="C135" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2064,6 +2471,9 @@
           <t>99-396</t>
         </is>
       </c>
+      <c r="C136" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2076,6 +2486,9 @@
           <t>99-397</t>
         </is>
       </c>
+      <c r="C137" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2088,6 +2501,9 @@
           <t>99-398</t>
         </is>
       </c>
+      <c r="C138" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2100,6 +2516,9 @@
           <t>99-399</t>
         </is>
       </c>
+      <c r="C139" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2112,6 +2531,9 @@
           <t>57-173</t>
         </is>
       </c>
+      <c r="C140" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2124,6 +2546,9 @@
           <t>57-209</t>
         </is>
       </c>
+      <c r="C141" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2136,6 +2561,9 @@
           <t>57-306</t>
         </is>
       </c>
+      <c r="C142" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2148,6 +2576,9 @@
           <t>66-213</t>
         </is>
       </c>
+      <c r="C143" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2160,6 +2591,9 @@
           <t>70-342</t>
         </is>
       </c>
+      <c r="C144" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2172,6 +2606,9 @@
           <t>76-221</t>
         </is>
       </c>
+      <c r="C145" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2184,6 +2621,9 @@
           <t>76-232</t>
         </is>
       </c>
+      <c r="C146" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2196,6 +2636,9 @@
           <t>76-239</t>
         </is>
       </c>
+      <c r="C147" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2208,6 +2651,9 @@
           <t>76-241</t>
         </is>
       </c>
+      <c r="C148" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2220,6 +2666,9 @@
           <t>76-386</t>
         </is>
       </c>
+      <c r="C149" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2232,6 +2681,9 @@
           <t>79-104</t>
         </is>
       </c>
+      <c r="C150" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2244,6 +2696,9 @@
           <t>79-201</t>
         </is>
       </c>
+      <c r="C151" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2256,6 +2711,9 @@
           <t>79-202</t>
         </is>
       </c>
+      <c r="C152" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2268,6 +2726,9 @@
           <t>79-205</t>
         </is>
       </c>
+      <c r="C153" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2280,6 +2741,9 @@
           <t>79-208</t>
         </is>
       </c>
+      <c r="C154" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -2292,6 +2756,9 @@
           <t>79-210</t>
         </is>
       </c>
+      <c r="C155" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2304,6 +2771,9 @@
           <t>79-211</t>
         </is>
       </c>
+      <c r="C156" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2316,6 +2786,9 @@
           <t>79-213</t>
         </is>
       </c>
+      <c r="C157" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2328,6 +2801,9 @@
           <t>79-216</t>
         </is>
       </c>
+      <c r="C158" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -2340,6 +2816,9 @@
           <t>79-217</t>
         </is>
       </c>
+      <c r="C159" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -2352,6 +2831,9 @@
           <t>79-220</t>
         </is>
       </c>
+      <c r="C160" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -2364,6 +2846,9 @@
           <t>79-222</t>
         </is>
       </c>
+      <c r="C161" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -2376,6 +2861,9 @@
           <t>79-223</t>
         </is>
       </c>
+      <c r="C162" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -2388,6 +2876,9 @@
           <t>79-227</t>
         </is>
       </c>
+      <c r="C163" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -2400,6 +2891,9 @@
           <t>79-229</t>
         </is>
       </c>
+      <c r="C164" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -2412,6 +2906,9 @@
           <t>79-230</t>
         </is>
       </c>
+      <c r="C165" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -2424,6 +2921,9 @@
           <t>79-232</t>
         </is>
       </c>
+      <c r="C166" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -2436,6 +2936,9 @@
           <t>79-233</t>
         </is>
       </c>
+      <c r="C167" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -2448,6 +2951,9 @@
           <t>79-234</t>
         </is>
       </c>
+      <c r="C168" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -2460,6 +2966,9 @@
           <t>79-235</t>
         </is>
       </c>
+      <c r="C169" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -2472,6 +2981,9 @@
           <t>79-240</t>
         </is>
       </c>
+      <c r="C170" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -2484,6 +2996,9 @@
           <t>79-241</t>
         </is>
       </c>
+      <c r="C171" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -2496,6 +3011,9 @@
           <t>79-242</t>
         </is>
       </c>
+      <c r="C172" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -2508,6 +3026,9 @@
           <t>79-244</t>
         </is>
       </c>
+      <c r="C173" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -2520,6 +3041,9 @@
           <t>79-245</t>
         </is>
       </c>
+      <c r="C174" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -2532,6 +3056,9 @@
           <t>79-250</t>
         </is>
       </c>
+      <c r="C175" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -2544,6 +3071,9 @@
           <t>79-255</t>
         </is>
       </c>
+      <c r="C176" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -2556,6 +3086,9 @@
           <t>79-261</t>
         </is>
       </c>
+      <c r="C177" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -2568,6 +3101,9 @@
           <t>79-262</t>
         </is>
       </c>
+      <c r="C178" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -2580,6 +3116,9 @@
           <t>79-263</t>
         </is>
       </c>
+      <c r="C179" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -2592,6 +3131,9 @@
           <t>79-264</t>
         </is>
       </c>
+      <c r="C180" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -2604,6 +3146,9 @@
           <t>79-265</t>
         </is>
       </c>
+      <c r="C181" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -2616,6 +3161,9 @@
           <t>79-266</t>
         </is>
       </c>
+      <c r="C182" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -2628,6 +3176,9 @@
           <t>79-267</t>
         </is>
       </c>
+      <c r="C183" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -2640,6 +3191,9 @@
           <t>79-275</t>
         </is>
       </c>
+      <c r="C184" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -2652,6 +3206,9 @@
           <t>79-280</t>
         </is>
       </c>
+      <c r="C185" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -2664,6 +3221,9 @@
           <t>79-283</t>
         </is>
       </c>
+      <c r="C186" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -2676,6 +3236,9 @@
           <t>79-307</t>
         </is>
       </c>
+      <c r="C187" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -2688,6 +3251,9 @@
           <t>79-328</t>
         </is>
       </c>
+      <c r="C188" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -2700,6 +3266,9 @@
           <t>79-343</t>
         </is>
       </c>
+      <c r="C189" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -2712,6 +3281,9 @@
           <t>79-345</t>
         </is>
       </c>
+      <c r="C190" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -2724,6 +3296,9 @@
           <t>79-349</t>
         </is>
       </c>
+      <c r="C191" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -2736,6 +3311,9 @@
           <t>79-350</t>
         </is>
       </c>
+      <c r="C192" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -2748,6 +3326,9 @@
           <t>79-375</t>
         </is>
       </c>
+      <c r="C193" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -2760,6 +3341,9 @@
           <t>79-377</t>
         </is>
       </c>
+      <c r="C194" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -2772,6 +3356,9 @@
           <t>80-100</t>
         </is>
       </c>
+      <c r="C195" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -2784,6 +3371,9 @@
           <t>80-250</t>
         </is>
       </c>
+      <c r="C196" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -2796,6 +3386,9 @@
           <t>80-251</t>
         </is>
       </c>
+      <c r="C197" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -2808,6 +3401,9 @@
           <t>80-253</t>
         </is>
       </c>
+      <c r="C198" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -2820,6 +3416,9 @@
           <t>80-254</t>
         </is>
       </c>
+      <c r="C199" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -2832,6 +3431,9 @@
           <t>80-255</t>
         </is>
       </c>
+      <c r="C200" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -2844,6 +3446,9 @@
           <t>80-276</t>
         </is>
       </c>
+      <c r="C201" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -2856,6 +3461,9 @@
           <t>84-380</t>
         </is>
       </c>
+      <c r="C202" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -2868,6 +3476,9 @@
           <t>85-350</t>
         </is>
       </c>
+      <c r="C203" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -2880,6 +3491,9 @@
           <t>85-352</t>
         </is>
       </c>
+      <c r="C204" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -2892,6 +3506,9 @@
           <t>02-223</t>
         </is>
       </c>
+      <c r="C205" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -2904,6 +3521,9 @@
           <t>02-250</t>
         </is>
       </c>
+      <c r="C206" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -2916,6 +3536,9 @@
           <t>03-250</t>
         </is>
       </c>
+      <c r="C207" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -2928,6 +3551,9 @@
           <t>02-261</t>
         </is>
       </c>
+      <c r="C208" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -2940,6 +3566,9 @@
           <t>03-116</t>
         </is>
       </c>
+      <c r="C209" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -2952,6 +3581,9 @@
           <t>03-117</t>
         </is>
       </c>
+      <c r="C210" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -2964,6 +3596,9 @@
           <t>03-121</t>
         </is>
       </c>
+      <c r="C211" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -2976,6 +3611,9 @@
           <t>03-151</t>
         </is>
       </c>
+      <c r="C212" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -2988,6 +3626,9 @@
           <t>03-124</t>
         </is>
       </c>
+      <c r="C213" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -3000,6 +3641,9 @@
           <t>03-125</t>
         </is>
       </c>
+      <c r="C214" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -3012,6 +3656,9 @@
           <t>03-127</t>
         </is>
       </c>
+      <c r="C215" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -3024,6 +3671,9 @@
           <t>03-132</t>
         </is>
       </c>
+      <c r="C216" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -3036,6 +3686,9 @@
           <t>03-133</t>
         </is>
       </c>
+      <c r="C217" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -3048,6 +3701,9 @@
           <t>03-135</t>
         </is>
       </c>
+      <c r="C218" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -3060,6 +3716,9 @@
           <t>03-161</t>
         </is>
       </c>
+      <c r="C219" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -3072,6 +3731,9 @@
           <t>03-231</t>
         </is>
       </c>
+      <c r="C220" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -3084,6 +3746,9 @@
           <t>03-232</t>
         </is>
       </c>
+      <c r="C221" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -3096,6 +3761,9 @@
           <t>42-101</t>
         </is>
       </c>
+      <c r="C222" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -3108,6 +3776,9 @@
           <t>42-202</t>
         </is>
       </c>
+      <c r="C223" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -3120,6 +3791,9 @@
           <t>85-219</t>
         </is>
       </c>
+      <c r="C224" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -3132,6 +3806,9 @@
           <t>09-105</t>
         </is>
       </c>
+      <c r="C225" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -3144,6 +3821,9 @@
           <t>09-106</t>
         </is>
       </c>
+      <c r="C226" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -3156,6 +3836,9 @@
           <t>09-107</t>
         </is>
       </c>
+      <c r="C227" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -3168,6 +3851,9 @@
           <t>09-214</t>
         </is>
       </c>
+      <c r="C228" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -3180,6 +3866,9 @@
           <t>09-217</t>
         </is>
       </c>
+      <c r="C229" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -3192,6 +3881,9 @@
           <t>09-219</t>
         </is>
       </c>
+      <c r="C230" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -3204,6 +3896,9 @@
           <t>09-221</t>
         </is>
       </c>
+      <c r="C231" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -3216,6 +3911,9 @@
           <t>09-225</t>
         </is>
       </c>
+      <c r="C232" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -3228,6 +3926,9 @@
           <t>09-348</t>
         </is>
       </c>
+      <c r="C233" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -3240,6 +3941,9 @@
           <t>33-121</t>
         </is>
       </c>
+      <c r="C234" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -3252,6 +3956,9 @@
           <t>33-122</t>
         </is>
       </c>
+      <c r="C235" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -3264,6 +3971,9 @@
           <t>33-141</t>
         </is>
       </c>
+      <c r="C236" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -3276,6 +3986,9 @@
           <t>33-142</t>
         </is>
       </c>
+      <c r="C237" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -3288,6 +4001,9 @@
           <t>33-151</t>
         </is>
       </c>
+      <c r="C238" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -3300,6 +4016,9 @@
           <t>33-152</t>
         </is>
       </c>
+      <c r="C239" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -3312,6 +4031,9 @@
           <t>33-211</t>
         </is>
       </c>
+      <c r="C240" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -3324,6 +4046,9 @@
           <t>33-224</t>
         </is>
       </c>
+      <c r="C241" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -3336,6 +4061,9 @@
           <t>33-225</t>
         </is>
       </c>
+      <c r="C242" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -3348,6 +4076,9 @@
           <t>02-201</t>
         </is>
       </c>
+      <c r="C243" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -3360,6 +4091,9 @@
           <t>21-120</t>
         </is>
       </c>
+      <c r="C244" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -3372,6 +4106,9 @@
           <t>21-122</t>
         </is>
       </c>
+      <c r="C245" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -3384,6 +4121,9 @@
           <t>21-124</t>
         </is>
       </c>
+      <c r="C246" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -3396,6 +4136,9 @@
           <t>21-127</t>
         </is>
       </c>
+      <c r="C247" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -3408,6 +4151,9 @@
           <t>21-128</t>
         </is>
       </c>
+      <c r="C248" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -3420,6 +4166,9 @@
           <t>21-228</t>
         </is>
       </c>
+      <c r="C249" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -3432,6 +4181,9 @@
           <t>21-240</t>
         </is>
       </c>
+      <c r="C250" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -3444,6 +4196,9 @@
           <t>21-241</t>
         </is>
       </c>
+      <c r="C251" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -3456,6 +4211,9 @@
           <t>21-242</t>
         </is>
       </c>
+      <c r="C252" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -3468,6 +4226,9 @@
           <t>21-259</t>
         </is>
       </c>
+      <c r="C253" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -3480,6 +4241,9 @@
           <t>21-268</t>
         </is>
       </c>
+      <c r="C254" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -3492,6 +4256,9 @@
           <t>21-269</t>
         </is>
       </c>
+      <c r="C255" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -3504,6 +4271,9 @@
           <t>21-260</t>
         </is>
       </c>
+      <c r="C256" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -3516,6 +4286,9 @@
           <t>21-261</t>
         </is>
       </c>
+      <c r="C257" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -3528,6 +4301,9 @@
           <t>36-200</t>
         </is>
       </c>
+      <c r="C258" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -3540,6 +4316,9 @@
           <t>36-202</t>
         </is>
       </c>
+      <c r="C259" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -3552,6 +4331,9 @@
           <t>36-217</t>
         </is>
       </c>
+      <c r="C260" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -3564,6 +4346,9 @@
           <t>36-220</t>
         </is>
       </c>
+      <c r="C261" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -3576,6 +4361,9 @@
           <t>36-225</t>
         </is>
       </c>
+      <c r="C262" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -3588,6 +4376,9 @@
           <t>36-247</t>
         </is>
       </c>
+      <c r="C263" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -3600,6 +4391,9 @@
           <t>36-309</t>
         </is>
       </c>
+      <c r="C264" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -3612,6 +4406,9 @@
           <t>15-110</t>
         </is>
       </c>
+      <c r="C265" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -3624,6 +4421,9 @@
           <t>15-112</t>
         </is>
       </c>
+      <c r="C266" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -3636,6 +4436,9 @@
           <t>15-122</t>
         </is>
       </c>
+      <c r="C267" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -3648,6 +4451,9 @@
           <t>15-150</t>
         </is>
       </c>
+      <c r="C268" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -3660,6 +4466,9 @@
           <t>15-155</t>
         </is>
       </c>
+      <c r="C269" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -3672,6 +4481,9 @@
           <t>15-181</t>
         </is>
       </c>
+      <c r="C270" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -3684,6 +4496,9 @@
           <t>15-251</t>
         </is>
       </c>
+      <c r="C271" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -3696,6 +4511,9 @@
           <t>02-223</t>
         </is>
       </c>
+      <c r="C272" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -3708,6 +4526,9 @@
           <t>02-250</t>
         </is>
       </c>
+      <c r="C273" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -3720,6 +4541,9 @@
           <t>02-261</t>
         </is>
       </c>
+      <c r="C274" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -3732,6 +4556,9 @@
           <t>03-117</t>
         </is>
       </c>
+      <c r="C275" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -3744,6 +4571,9 @@
           <t>03-121</t>
         </is>
       </c>
+      <c r="C276" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -3756,6 +4586,9 @@
           <t>03-124</t>
         </is>
       </c>
+      <c r="C277" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -3768,6 +4601,9 @@
           <t>03-125</t>
         </is>
       </c>
+      <c r="C278" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -3780,6 +4616,9 @@
           <t>03-128</t>
         </is>
       </c>
+      <c r="C279" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -3792,6 +4631,9 @@
           <t>03-132</t>
         </is>
       </c>
+      <c r="C280" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -3804,6 +4646,9 @@
           <t>03-133</t>
         </is>
       </c>
+      <c r="C281" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -3816,6 +4661,9 @@
           <t>03-135</t>
         </is>
       </c>
+      <c r="C282" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -3828,6 +4676,9 @@
           <t>03-140</t>
         </is>
       </c>
+      <c r="C283" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -3840,6 +4691,9 @@
           <t>03-151</t>
         </is>
       </c>
+      <c r="C284" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -3852,6 +4706,9 @@
           <t>03-161</t>
         </is>
       </c>
+      <c r="C285" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -3864,6 +4721,9 @@
           <t>03-230</t>
         </is>
       </c>
+      <c r="C286" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -3876,6 +4736,9 @@
           <t>03-231</t>
         </is>
       </c>
+      <c r="C287" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -3888,6 +4751,9 @@
           <t>03-232</t>
         </is>
       </c>
+      <c r="C288" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -3900,6 +4766,9 @@
           <t>03-260</t>
         </is>
       </c>
+      <c r="C289" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -3912,6 +4781,9 @@
           <t>06-100</t>
         </is>
       </c>
+      <c r="C290" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -3924,6 +4796,9 @@
           <t>09-105</t>
         </is>
       </c>
+      <c r="C291" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -3936,6 +4811,9 @@
           <t>09-106</t>
         </is>
       </c>
+      <c r="C292" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -3948,6 +4826,9 @@
           <t>09-107</t>
         </is>
       </c>
+      <c r="C293" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -3960,6 +4841,9 @@
           <t>09-111</t>
         </is>
       </c>
+      <c r="C294" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -3972,6 +4856,9 @@
           <t>09-214</t>
         </is>
       </c>
+      <c r="C295" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -3984,6 +4871,9 @@
           <t>09-217</t>
         </is>
       </c>
+      <c r="C296" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -3996,6 +4886,9 @@
           <t>09-219</t>
         </is>
       </c>
+      <c r="C297" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -4008,6 +4901,9 @@
           <t>09-221</t>
         </is>
       </c>
+      <c r="C298" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -4020,6 +4916,9 @@
           <t>09-225</t>
         </is>
       </c>
+      <c r="C299" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -4032,6 +4931,9 @@
           <t>09-348</t>
         </is>
       </c>
+      <c r="C300" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -4044,6 +4946,9 @@
           <t>12-100</t>
         </is>
       </c>
+      <c r="C301" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -4056,6 +4961,9 @@
           <t>15-110</t>
         </is>
       </c>
+      <c r="C302" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -4068,6 +4976,9 @@
           <t>15-112</t>
         </is>
       </c>
+      <c r="C303" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -4080,6 +4991,9 @@
           <t>15-122</t>
         </is>
       </c>
+      <c r="C304" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -4092,6 +5006,9 @@
           <t>15-150</t>
         </is>
       </c>
+      <c r="C305" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -4104,6 +5021,9 @@
           <t>15-155</t>
         </is>
       </c>
+      <c r="C306" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -4116,6 +5036,9 @@
           <t>15-181</t>
         </is>
       </c>
+      <c r="C307" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -4128,6 +5051,9 @@
           <t>15-251</t>
         </is>
       </c>
+      <c r="C308" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -4140,6 +5066,9 @@
           <t>18-100</t>
         </is>
       </c>
+      <c r="C309" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -4152,6 +5081,9 @@
           <t>19-101</t>
         </is>
       </c>
+      <c r="C310" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -4164,6 +5096,9 @@
           <t>21-127</t>
         </is>
       </c>
+      <c r="C311" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -4176,6 +5111,9 @@
           <t>21-128</t>
         </is>
       </c>
+      <c r="C312" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -4188,6 +5126,9 @@
           <t>21-228</t>
         </is>
       </c>
+      <c r="C313" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -4200,6 +5141,9 @@
           <t>21-240</t>
         </is>
       </c>
+      <c r="C314" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -4212,6 +5156,9 @@
           <t>21-241</t>
         </is>
       </c>
+      <c r="C315" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -4224,6 +5171,9 @@
           <t>21-242</t>
         </is>
       </c>
+      <c r="C316" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -4236,6 +5186,9 @@
           <t>21-259</t>
         </is>
       </c>
+      <c r="C317" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -4248,6 +5201,9 @@
           <t>21-260</t>
         </is>
       </c>
+      <c r="C318" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -4260,6 +5216,9 @@
           <t>21-261</t>
         </is>
       </c>
+      <c r="C319" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -4272,6 +5231,9 @@
           <t>21-268</t>
         </is>
       </c>
+      <c r="C320" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -4284,6 +5246,9 @@
           <t>21-269</t>
         </is>
       </c>
+      <c r="C321" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -4296,6 +5261,9 @@
           <t>24-101</t>
         </is>
       </c>
+      <c r="C322" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -4308,6 +5276,9 @@
           <t>27-100</t>
         </is>
       </c>
+      <c r="C323" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -4320,6 +5291,9 @@
           <t>33-121</t>
         </is>
       </c>
+      <c r="C324" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -4332,6 +5306,9 @@
           <t>33-122</t>
         </is>
       </c>
+      <c r="C325" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -4344,6 +5321,9 @@
           <t>33-141</t>
         </is>
       </c>
+      <c r="C326" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -4356,6 +5336,9 @@
           <t>33-142</t>
         </is>
       </c>
+      <c r="C327" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -4368,6 +5351,9 @@
           <t>33-151</t>
         </is>
       </c>
+      <c r="C328" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -4380,6 +5366,9 @@
           <t>33-152</t>
         </is>
       </c>
+      <c r="C329" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -4392,6 +5381,9 @@
           <t>33-211</t>
         </is>
       </c>
+      <c r="C330" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -4404,6 +5396,9 @@
           <t>33-224</t>
         </is>
       </c>
+      <c r="C331" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -4416,6 +5411,9 @@
           <t>33-225</t>
         </is>
       </c>
+      <c r="C332" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -4428,6 +5426,9 @@
           <t>36-200</t>
         </is>
       </c>
+      <c r="C333" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -4440,6 +5441,9 @@
           <t>36-202</t>
         </is>
       </c>
+      <c r="C334" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -4452,6 +5456,9 @@
           <t>36-217</t>
         </is>
       </c>
+      <c r="C335" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -4464,6 +5471,9 @@
           <t>36-220</t>
         </is>
       </c>
+      <c r="C336" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -4476,6 +5486,9 @@
           <t>36-225</t>
         </is>
       </c>
+      <c r="C337" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -4488,6 +5501,9 @@
           <t>36-247</t>
         </is>
       </c>
+      <c r="C338" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -4500,6 +5516,9 @@
           <t>36-309</t>
         </is>
       </c>
+      <c r="C339" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -4512,6 +5531,9 @@
           <t>42-101</t>
         </is>
       </c>
+      <c r="C340" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -4524,6 +5546,9 @@
           <t>42-202</t>
         </is>
       </c>
+      <c r="C341" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -4536,6 +5561,9 @@
           <t>85-219</t>
         </is>
       </c>
+      <c r="C342" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -4548,6 +5576,9 @@
           <t>05-392</t>
         </is>
       </c>
+      <c r="C343" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -4560,6 +5591,9 @@
           <t>15-221</t>
         </is>
       </c>
+      <c r="C344" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -4572,6 +5606,9 @@
           <t>19-319</t>
         </is>
       </c>
+      <c r="C345" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -4584,6 +5621,9 @@
           <t>38-132</t>
         </is>
       </c>
+      <c r="C346" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -4596,6 +5636,9 @@
           <t>70-160</t>
         </is>
       </c>
+      <c r="C347" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -4608,6 +5651,9 @@
           <t>70-311</t>
         </is>
       </c>
+      <c r="C348" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -4620,6 +5666,9 @@
           <t>70-312</t>
         </is>
       </c>
+      <c r="C349" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -4632,6 +5681,9 @@
           <t>70-313</t>
         </is>
       </c>
+      <c r="C350" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -4644,6 +5696,9 @@
           <t>70-332</t>
         </is>
       </c>
+      <c r="C351" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -4656,6 +5711,9 @@
           <t>70-335</t>
         </is>
       </c>
+      <c r="C352" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -4668,6 +5726,9 @@
           <t>70-340</t>
         </is>
       </c>
+      <c r="C353" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -4680,6 +5741,9 @@
           <t>70-343</t>
         </is>
       </c>
+      <c r="C354" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -4692,6 +5756,9 @@
           <t>70-345</t>
         </is>
       </c>
+      <c r="C355" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -4704,6 +5771,9 @@
           <t>70-361</t>
         </is>
       </c>
+      <c r="C356" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -4716,6 +5786,9 @@
           <t>70-363</t>
         </is>
       </c>
+      <c r="C357" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -4728,6 +5801,9 @@
           <t>70-365</t>
         </is>
       </c>
+      <c r="C358" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -4740,6 +5816,9 @@
           <t>70-430</t>
         </is>
       </c>
+      <c r="C359" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -4752,6 +5831,9 @@
           <t>90-650</t>
         </is>
       </c>
+      <c r="C360" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -4764,6 +5846,9 @@
           <t>90-717</t>
         </is>
       </c>
+      <c r="C361" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -4776,6 +5861,9 @@
           <t>90-718</t>
         </is>
       </c>
+      <c r="C362" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -4788,6 +5876,9 @@
           <t>90-733</t>
         </is>
       </c>
+      <c r="C363" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -4800,6 +5891,9 @@
           <t>90-762</t>
         </is>
       </c>
+      <c r="C364" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -4812,6 +5906,9 @@
           <t>90-765</t>
         </is>
       </c>
+      <c r="C365" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -4824,6 +5921,9 @@
           <t>90-767</t>
         </is>
       </c>
+      <c r="C366" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -4836,6 +5936,9 @@
           <t>90-778</t>
         </is>
       </c>
+      <c r="C367" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -4848,6 +5951,9 @@
           <t>90-810</t>
         </is>
       </c>
+      <c r="C368" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -4860,6 +5966,9 @@
           <t>90-818</t>
         </is>
       </c>
+      <c r="C369" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -4872,6 +5981,9 @@
           <t>90-820</t>
         </is>
       </c>
+      <c r="C370" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -4884,6 +5996,9 @@
           <t>90-828</t>
         </is>
       </c>
+      <c r="C371" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -4896,6 +6011,9 @@
           <t>90-847</t>
         </is>
       </c>
+      <c r="C372" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -4908,6 +6026,9 @@
           <t>99-241</t>
         </is>
       </c>
+      <c r="C373" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -4919,6 +6040,9 @@
         <is>
           <t>99-421</t>
         </is>
+      </c>
+      <c r="C374" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
